--- a/Reports/it_support.xlsx
+++ b/Reports/it_support.xlsx
@@ -2094,9 +2094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
